--- a/code/xddesign/src/main/resources/xlsx/template2.xlsx
+++ b/code/xddesign/src/main/resources/xlsx/template2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\xddesign\code\xddesign\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768DC7D6-6B36-4D80-89E5-E41E09B25D5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DC5613-EA54-40A6-BDD1-47AF16570106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1440" windowWidth="25260" windowHeight="13605" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="省级报价" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
   <si>
     <t>智能家居方案报价单</t>
   </si>
@@ -244,6 +244,14 @@
   </si>
   <si>
     <t>{.countyTotalPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型：{typeName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：{address}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +480,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -484,32 +519,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,20 +817,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
@@ -824,222 +838,239 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="25"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="25"/>
+      <c r="A3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="21"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="25"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="25"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="12" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A8:E8"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="J2:J9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1049,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891BF43-82C1-4655-AF59-5DEE5A37FCB2}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,207 +1096,224 @@
     <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3"/>
+      <c r="I3" s="18"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="15" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A13:F13"/>
+  <mergeCells count="15">
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42920E4A-9D77-4B16-9428-05A3444DD170}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1291,207 +1339,224 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3"/>
+      <c r="I3" s="18"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="13" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="9" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="10" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A13:F13"/>
+  <mergeCells count="15">
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2BA2C9-2BD1-4567-9CA1-92CF5A4945C1}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1515,218 +1580,235 @@
     <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3"/>
+      <c r="I3" s="18"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="16" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="16" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="17" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
+  <mergeCells count="15">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/xddesign/src/main/resources/xlsx/template2.xlsx
+++ b/code/xddesign/src/main/resources/xlsx/template2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\xddesign\code\xddesign\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DC5613-EA54-40A6-BDD1-47AF16570106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBE5444-8475-4762-8851-9CC2F2F5667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +483,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -492,9 +510,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,23 +522,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +812,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,20 +826,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2"/>
@@ -838,103 +847,103 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="H3" s="21"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="21"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="21"/>
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="27"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -957,7 +966,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="21"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -978,29 +987,29 @@
       <c r="F8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
@@ -1009,13 +1018,13 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="12" t="s">
         <v>50</v>
       </c>
@@ -1029,38 +1038,31 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:10" ht="170.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="J2:J9"/>
@@ -1071,6 +1073,13 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,7 +1092,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,107 +1106,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="H3"/>
       <c r="I3" s="18"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1242,60 +1251,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="170.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1326,7 +1335,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1340,107 +1349,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="H3"/>
       <c r="I3" s="18"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1485,60 +1494,60 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="170.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1568,7 +1577,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1581,117 +1590,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="H3"/>
       <c r="I3" s="18"/>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1736,64 +1745,70 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="170.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="A1:F1"/>
@@ -1803,12 +1818,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
